--- a/Streamlit_app/data/Comparaison_RNN.xlsx
+++ b/Streamlit_app/data/Comparaison_RNN.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>RMSE (train)</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Multivarié</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -545,6 +548,23 @@
         <v>2.1419999999999999</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1.9552</v>
+      </c>
+      <c r="C4">
+        <v>2.8877000000000002</v>
+      </c>
+      <c r="D4">
+        <v>1.4774</v>
+      </c>
+      <c r="E4">
+        <v>2.0617999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
